--- a/documentation/MAITRE_Planification.xlsx
+++ b/documentation/MAITRE_Planification.xlsx
@@ -438,7 +438,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/documentation/MAITRE_Planification.xlsx
+++ b/documentation/MAITRE_Planification.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Temps</t>
   </si>
@@ -66,9 +66,6 @@
     <t>5h</t>
   </si>
   <si>
-    <t>Installation de MySQL et création de la base de données. Intégration du système d'authentification à celle-ci.</t>
-  </si>
-  <si>
     <t>7h</t>
   </si>
   <si>
@@ -93,7 +90,34 @@
     <t>Résolution de bugs</t>
   </si>
   <si>
-    <t xml:space="preserve">Création et edition des profils utilisateur </t>
+    <t xml:space="preserve">Fonctionnalité de création et edition des profils utilisateur </t>
+  </si>
+  <si>
+    <t>Fonctionnalité de gestion des comptes utilisateur par les administrateurs (bannissement / suppression)</t>
+  </si>
+  <si>
+    <t>Installation de MySQL et création de la base de données. Réalisation d'un script de création des tables.</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>Fonctionnalité de niveau de publication du compte.</t>
+  </si>
+  <si>
+    <t>Fonctionnalité de recherche d'utilisateur par pseudo</t>
+  </si>
+  <si>
+    <t>Tableau de bord des modérateurs. Fonctionnalités de modération.</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>Tableau de bord des administrateurs (backup base de données etc.)</t>
+  </si>
+  <si>
+    <t>Fonctionnalité d'envoi d'images/animations</t>
   </si>
 </sst>
 </file>
@@ -435,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +510,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -494,7 +518,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -502,7 +526,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>10</v>
@@ -510,7 +534,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -521,15 +545,15 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -537,15 +561,15 @@
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -553,31 +577,79 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="3" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
